--- a/svmvol.xlsx
+++ b/svmvol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\ProjC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173642C-F643-4997-8CD6-E3EA7059B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AE4571-8A9F-4D1B-8831-743070B9596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{2531C917-796F-4956-BBA0-02438E81E71E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>SVM_Name</t>
   </si>
@@ -42,41 +42,32 @@
     <t>Vol_Name</t>
   </si>
   <si>
-    <t>svm1_cluster1</t>
-  </si>
-  <si>
-    <t>sql1_db1</t>
-  </si>
-  <si>
-    <t>sql1_log</t>
-  </si>
-  <si>
-    <t>sql1_system_db</t>
-  </si>
-  <si>
-    <t>svm1_cluster1_root</t>
-  </si>
-  <si>
-    <t>svm1_cluster2</t>
-  </si>
-  <si>
-    <t>sql1_db1_dest</t>
-  </si>
-  <si>
-    <t>sql1_log_dest</t>
-  </si>
-  <si>
-    <t>NetApp</t>
+    <t>svm21</t>
+  </si>
+  <si>
+    <t>vol1</t>
+  </si>
+  <si>
+    <t>vol2</t>
+  </si>
+  <si>
+    <t>vol3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E73044-18BC-4795-B7C6-120631DDC2E8}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,39 +453,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>